--- a/Data/Tracking/tracking-speed-distanceStats.xlsx
+++ b/Data/Tracking/tracking-speed-distanceStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryan/Documents/GitHub/nba-dsai/Data/Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577E495D-4059-414F-B767-3F9C6A3F1D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5697992E-F516-5946-B2FF-33605CFB029B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5749,12 +5749,6 @@
     <t>DistFeet</t>
   </si>
   <si>
-    <t>DistMiles Off</t>
-  </si>
-  <si>
-    <t>DistMiles Def</t>
-  </si>
-  <si>
     <t>AvgSpeed</t>
   </si>
   <si>
@@ -5762,6 +5756,12 @@
   </si>
   <si>
     <t>AvgSpeedDef</t>
+  </si>
+  <si>
+    <t>DistMilesDef</t>
+  </si>
+  <si>
+    <t>DistMilesOff</t>
   </si>
 </sst>
 </file>
@@ -6129,7 +6129,7 @@
   <dimension ref="A1:N541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6160,19 +6160,19 @@
         <v>1907</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1911</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1912</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
